--- a/Bugs/Bugs.xlsx
+++ b/Bugs/Bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4A470-ACA7-4956-BB15-D1EBB603F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E4B5B-1BB6-4970-A420-89F9239ED9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,40 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -98,9 +66,6 @@
     <t>Error Message should appear indicating that user alreay exists</t>
   </si>
   <si>
-    <t xml:space="preserve">user registered succesfully </t>
-  </si>
-  <si>
     <t>unhandled exception should be handled and user friendly message should appear instead</t>
   </si>
   <si>
@@ -111,12 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">User gets unhandled exception with exceeds limits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Investigation , this error appears when trying to login or register in Edge, Chrome or Firefox after login with invalid data multiple times.
-In each request , a header is sent (X-Tractive-Client) with the same value.
-The response for login or register requests as in screenshot doesn't have detailed information.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Register user succesfully.
@@ -160,12 +119,41 @@
   <si>
     <t>Medium</t>
   </si>
+  <si>
+    <t xml:space="preserve">user registered succesfully and is redirected to Activation TrackID </t>
+  </si>
+  <si>
+    <t>wrongpassword.png</t>
+  </si>
+  <si>
+    <t>notregisteredemail.png</t>
+  </si>
+  <si>
+    <t>unhandle2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response.png
+</t>
+  </si>
+  <si>
+    <t>Error message doesn’t provide any information on the problem and how to fix it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Investigation , this error appears when trying to login or register in Edge, Chrome or Firefox after login with invalid data multiple times.
+In each request , a header is sent (X-Tractive-Client) with the same value.
+The response for login or register requests doesn't have detailed information.
+The error disappeared after a day.
+</t>
+  </si>
+  <si>
+    <t>Instead of unhandled exception , user should be provided with a clear message describe the issue and how to be able to access system again.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +164,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,10 +200,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -215,8 +212,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,75 +238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -635,19 +568,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -655,19 +591,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -675,56 +614,60 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,7 +685,13 @@
       <c r="E9" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{97AB031F-820B-477B-B7EF-90FD381CC8EC}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{F3341489-A2FA-4C11-90CC-67B14B6AD0CF}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{D08EA969-A516-42C0-89AA-F6586750DCF4}"/>
+    <hyperlink ref="G7" r:id="rId4" display="response.png" xr:uid="{EA912737-14E4-4730-A5E5-673485080CB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Bugs/Bugs.xlsx
+++ b/Bugs/Bugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Bugs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\New folder (2)\tractive-task\Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E4B5B-1BB6-4970-A420-89F9239ED9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCB3EA7-740D-4914-B7F8-404321F0E6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Screenshots</t>
   </si>
   <si>
-    <t>User can create multiple accounts using the same email</t>
-  </si>
-  <si>
     <t>Unhandled exception occurs when login with wrong password</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Error Message should appear indicating that user alreay exists</t>
   </si>
   <si>
     <t>unhandled exception should be handled and user friendly message should appear instead</t>
@@ -99,6 +93,44 @@
     <t>Enter unregisterd Email.
 Enter  Password.
 Click on "Sign in"</t>
+  </si>
+  <si>
+    <t>Enter first name.
+Enter last name.
+Enter invalid Email.
+Enter valid password.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>wrongpassword.png</t>
+  </si>
+  <si>
+    <t>notregisteredemail.png</t>
+  </si>
+  <si>
+    <t>unhandle2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response.png
+</t>
+  </si>
+  <si>
+    <t>Error message doesn’t provide any information on the problem and how to fix it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Investigation , this error appears when trying to login or register in Edge, Chrome or Firefox after login with invalid data multiple times.
+In each request , a header is sent (X-Tractive-Client) with the same value.
+The response for login or register requests doesn't have detailed information.
+The error disappeared after a day.
+</t>
+  </si>
+  <si>
+    <t>Instead of unhandled exception , user should be provided with a clear message describe the issue and how to be able to access system again.</t>
+  </si>
+  <si>
+    <t>user registered succesfully and is redirected to Activation TrackID but profile information contains first registeration data.</t>
   </si>
   <si>
     <t xml:space="preserve">Enter first name.
@@ -107,46 +139,24 @@
 Enter valid password.
 Click on Create Account.
 Click on Sign out.
-Register again with the same email.
+Register again with the same email &amp; password but with different first &amp; last name. 
 </t>
   </si>
   <si>
-    <t>Enter first name.
-Enter last name.
-Enter invalid Email.
-Enter valid password.</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user registered succesfully and is redirected to Activation TrackID </t>
-  </si>
-  <si>
-    <t>wrongpassword.png</t>
-  </si>
-  <si>
-    <t>notregisteredemail.png</t>
-  </si>
-  <si>
-    <t>unhandle2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response.png
-</t>
-  </si>
-  <si>
-    <t>Error message doesn’t provide any information on the problem and how to fix it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Investigation , this error appears when trying to login or register in Edge, Chrome or Firefox after login with invalid data multiple times.
-In each request , a header is sent (X-Tractive-Client) with the same value.
-The response for login or register requests doesn't have detailed information.
-The error disappeared after a day.
-</t>
-  </si>
-  <si>
-    <t>Instead of unhandled exception , user should be provided with a clear message describe the issue and how to be able to access system again.</t>
+    <t>Create Account with registered email and different data pass</t>
+  </si>
+  <si>
+    <t>existingemail.png</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>when trying the same scenario with different password , user gets error message as in screenshot attached.
+However The system should consistently validate email uniqueness regardless of whether the password is changed or remains the same. When the user attempts to register with an already used email, an error should be displayed, preventing registration.</t>
+  </si>
+  <si>
+    <t>Display an error message when the user tries to register with an already used email, regardless of the password field's contents.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -215,6 +225,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +531,10 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,142 +556,151 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -690,8 +713,9 @@
     <hyperlink ref="G4" r:id="rId2" xr:uid="{F3341489-A2FA-4C11-90CC-67B14B6AD0CF}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{D08EA969-A516-42C0-89AA-F6586750DCF4}"/>
     <hyperlink ref="G7" r:id="rId4" display="response.png" xr:uid="{EA912737-14E4-4730-A5E5-673485080CB8}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{36529AC8-65A2-445D-A2A3-01073F14FE21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>